--- a/project/02_테이블 설계/DB테이블.xlsx
+++ b/project/02_테이블 설계/DB테이블.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GD6\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIclass\project\02_테이블 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F321181A-E578-427C-82B1-C6B8F9743891}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9E6827-13C8-49DF-A17E-9929158C96F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="51">
   <si>
     <t>데이터형식</t>
   </si>
@@ -198,6 +198,18 @@
   </si>
   <si>
     <t>기계 생산가능 제품 목록</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량률</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -402,6 +414,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -419,15 +440,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -613,7 +625,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -622,7 +634,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -907,7 +919,7 @@
   <dimension ref="A3:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -930,44 +942,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="H3" s="8" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="H3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10"/>
-      <c r="N3" s="8" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="N3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="10"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="16"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="16"/>
     </row>
     <row r="5" spans="2:18" ht="19.5" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
@@ -1112,7 +1124,7 @@
       <c r="I8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K8" s="7" t="s">
@@ -1161,7 +1173,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="8" t="s">
         <v>35</v>
       </c>
       <c r="J10" s="7" t="s">
@@ -1170,7 +1182,7 @@
       <c r="K10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="15"/>
+      <c r="L10" s="9"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -1184,7 +1196,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="8" t="s">
         <v>36</v>
       </c>
       <c r="J11" s="7" t="s">
@@ -1219,17 +1231,23 @@
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="15"/>
+      <c r="O13" s="9"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -1271,44 +1289,44 @@
       <c r="R15" s="5"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="H16" s="8" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="H16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="10"/>
-      <c r="N16" s="8" t="s">
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="13"/>
+      <c r="N16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="10"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="13"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="13"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="16"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="16"/>
     </row>
     <row r="18" spans="1:18" ht="19.5" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
@@ -1439,19 +1457,19 @@
     <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="16"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="16" t="s">
+      <c r="J21" s="10" t="s">
         <v>33</v>
       </c>
       <c r="K21" s="4"/>
@@ -1465,19 +1483,19 @@
     <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="16"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="J22" s="10" t="s">
         <v>33</v>
       </c>
       <c r="K22" s="4"/>
@@ -1486,19 +1504,19 @@
     <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="16"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="16" t="s">
+      <c r="I23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="J23" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K23" s="4"/>
@@ -1516,10 +1534,10 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="16" t="s">
+      <c r="I24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="10" t="s">
         <v>1</v>
       </c>
       <c r="K24" s="4"/>
@@ -1537,13 +1555,13 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-      <c r="N25" s="8" t="s">
+      <c r="N25" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="10"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="13"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
@@ -1557,11 +1575,11 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="13"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="16"/>
     </row>
     <row r="27" spans="1:18" ht="19.5" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
@@ -1656,7 +1674,7 @@
       <c r="O30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P30" s="16" t="s">
+      <c r="P30" s="10" t="s">
         <v>33</v>
       </c>
       <c r="Q30" s="4"/>
@@ -1677,7 +1695,7 @@
       <c r="O31" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P31" s="16" t="s">
+      <c r="P31" s="10" t="s">
         <v>33</v>
       </c>
       <c r="Q31" s="4"/>

--- a/project/02_테이블 설계/DB테이블.xlsx
+++ b/project/02_테이블 설계/DB테이블.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIclass\project\02_테이블 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9E6827-13C8-49DF-A17E-9929158C96F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3096B7-D9DA-411B-AC09-7595C6EB02B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="60">
   <si>
     <t>데이터형식</t>
   </si>
@@ -114,22 +114,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>의뢰업체</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>의뢰업체ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>의뢰업체명</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>이름</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -145,10 +129,6 @@
     <t>CHAR(14)</t>
   </si>
   <si>
-    <t>CHAR(14)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>갯수</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -161,14 +141,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>분류</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VHARCHAR(15)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>부서</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -210,6 +182,70 @@
   </si>
   <si>
     <t>?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업지시</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루예상생산량</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가용여부</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품기록코드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VHARCHAR(10)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(14)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업지시코드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당 직원</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업지시코드</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -280,7 +316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -380,6 +416,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -389,7 +487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -439,6 +537,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -919,7 +1035,7 @@
   <dimension ref="A3:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -934,7 +1050,7 @@
     <col min="9" max="9" width="14.44140625" customWidth="1"/>
     <col min="10" max="10" width="12.21875" customWidth="1"/>
     <col min="11" max="11" width="10.5546875" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
     <col min="14" max="14" width="6.21875" customWidth="1"/>
     <col min="15" max="15" width="18.21875" customWidth="1"/>
     <col min="16" max="16" width="12.21875" customWidth="1"/>
@@ -1043,18 +1159,20 @@
       </c>
       <c r="F6" s="2"/>
       <c r="H6" s="6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="N6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1083,23 +1201,21 @@
         <v>17</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="K7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="7"/>
       <c r="N7" s="2"/>
       <c r="O7" s="7" t="s">
         <v>20</v>
@@ -1114,30 +1230,32 @@
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="H8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="N8" s="2"/>
-      <c r="O8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
@@ -1147,7 +1265,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="7" t="s">
         <v>24</v>
       </c>
@@ -1158,7 +1276,7 @@
         <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1172,9 +1290,9 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="4"/>
       <c r="I10" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>23</v>
@@ -1195,12 +1313,12 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
@@ -1218,10 +1336,18 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="H12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1232,14 +1358,14 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="C13" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="4"/>
@@ -1288,7 +1414,7 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="11" t="s">
         <v>15</v>
       </c>
@@ -1296,32 +1422,32 @@
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="13"/>
-      <c r="H16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="13"/>
+      <c r="H16" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
       <c r="N16" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
       <c r="R16" s="13"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="16"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="16"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
       <c r="N17" s="14"/>
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
@@ -1344,21 +1470,11 @@
       <c r="F18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
       <c r="N18" s="1" t="s">
         <v>5</v>
       </c>
@@ -1393,15 +1509,17 @@
         <v>12</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="6"/>
+      <c r="L19" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="N19" s="7" t="s">
         <v>22</v>
       </c>
@@ -1420,26 +1538,28 @@
       <c r="A20" s="3"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="H20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I20" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="4"/>
+      <c r="L20" s="7"/>
       <c r="N20" s="7" t="s">
         <v>22</v>
       </c>
@@ -1461,22 +1581,32 @@
         <v>7</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="H21" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
+      <c r="O21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
@@ -1493,13 +1623,22 @@
       <c r="F22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
@@ -1513,42 +1652,52 @@
       <c r="E23" s="10"/>
       <c r="F23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="I23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K24" s="4"/>
+      <c r="I24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="C25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -1556,7 +1705,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="N25" s="11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
@@ -1625,7 +1774,7 @@
         <v>4</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="P28" s="6" t="s">
         <v>25</v>
@@ -1649,7 +1798,7 @@
       <c r="L29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>2</v>
@@ -1672,10 +1821,10 @@
       <c r="L30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
@@ -1693,10 +1842,10 @@
       <c r="L31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>

--- a/project/02_테이블 설계/DB테이블.xlsx
+++ b/project/02_테이블 설계/DB테이블.xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIclass\project\02_테이블 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3096B7-D9DA-411B-AC09-7595C6EB02B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA0FA57-D97F-48B1-ABC5-F63540C13006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17250" yWindow="6870" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="57">
   <si>
     <t>데이터형식</t>
   </si>
@@ -28,9 +36,6 @@
     <t>VARCHAR(50)</t>
   </si>
   <si>
-    <t>VARCHAR(10)</t>
-  </si>
-  <si>
     <t>VARCHAR(30)</t>
   </si>
   <si>
@@ -118,17 +123,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>연락처</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAX</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(14)</t>
-  </si>
-  <si>
     <t>갯수</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -141,55 +135,103 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>부서</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(15)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>생산가능제품인지?</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>시설팀 직원</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>생산팀 직원</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>부서ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>부서명</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>기계 생산가능 제품 목록</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>작업지시</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루예상생산량</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가용여부</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품기록코드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VHARCHAR(10)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(14)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업지시코드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>불량률</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>DOUBLE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>작업지시</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>하루예상생산량</t>
+    <t>DOUBLE(6,3)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIT(1)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT b'0'</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자/ 직원</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업지시코드</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -197,55 +239,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>가용여부</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품기록코드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTO_INCREMENT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VHARCHAR(10)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/N</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(14)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(30)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>작업지시코드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당 직원</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>작업지시코드</t>
+    <t>생산계획</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산계획코드</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -556,6 +554,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1034,8 +1035,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="L14" sqref="H6:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1045,7 +1046,7 @@
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="12.21875" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
     <col min="8" max="8" width="6.21875" customWidth="1"/>
     <col min="9" max="9" width="14.44140625" customWidth="1"/>
     <col min="10" max="10" width="12.21875" customWidth="1"/>
@@ -1055,25 +1056,26 @@
     <col min="15" max="15" width="18.21875" customWidth="1"/>
     <col min="16" max="16" width="12.21875" customWidth="1"/>
     <col min="17" max="17" width="10.5546875" customWidth="1"/>
+    <col min="18" max="18" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B3" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="13"/>
       <c r="H3" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="13"/>
       <c r="N3" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
@@ -1099,159 +1101,151 @@
     </row>
     <row r="5" spans="2:18" ht="19.5" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2"/>
       <c r="H6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R6" s="6"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B7" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L7" s="7"/>
       <c r="N7" s="2"/>
       <c r="O7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
-      <c r="C8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
       <c r="H8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="7"/>
@@ -1265,19 +1259,19 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="H9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="9"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -1290,17 +1284,21 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="8" t="s">
+      <c r="H10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="9"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -1315,15 +1313,15 @@
       <c r="F11" s="2"/>
       <c r="H11" s="4"/>
       <c r="I11" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="L11" s="9"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -1336,17 +1334,15 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="H12" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="H12" s="7"/>
       <c r="I12" s="8" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="L12" s="4"/>
       <c r="N12" s="4"/>
@@ -1357,19 +1353,17 @@
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
-      <c r="C13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="F13" s="7"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="N13" s="4"/>
@@ -1385,11 +1379,11 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -1416,21 +1410,21 @@
     </row>
     <row r="16" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="13"/>
       <c r="H16" s="17" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="19"/>
       <c r="N16" s="11" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
@@ -1456,81 +1450,91 @@
     </row>
     <row r="18" spans="1:18" ht="19.5" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="N18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="E19" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="6"/>
       <c r="H19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R19" s="7"/>
     </row>
@@ -1538,39 +1542,39 @@
       <c r="A20" s="3"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="4"/>
       <c r="H20" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L20" s="7"/>
       <c r="N20" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R20" s="4"/>
     </row>
@@ -1578,34 +1582,34 @@
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="4"/>
       <c r="H21" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -1614,26 +1618,26 @@
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="H22" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>57</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="L22" s="7"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
@@ -1644,7 +1648,7 @@
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>1</v>
@@ -1653,13 +1657,13 @@
       <c r="F23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L23" s="9"/>
     </row>
@@ -1667,70 +1671,95 @@
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L24" s="4"/>
+      <c r="N24" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="19"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="F25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="N25" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="13"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="22"/>
+    </row>
+    <row r="26" spans="1:18" ht="19.5" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="C26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="16"/>
-    </row>
-    <row r="27" spans="1:18" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="N26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1742,23 +1771,23 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-      <c r="N27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="N27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1770,19 +1799,21 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="N28" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R28" s="6"/>
+      <c r="N28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -1797,16 +1828,16 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="N29" s="4"/>
-      <c r="O29" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q29" s="4" t="s">
+      <c r="O29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R29" s="4"/>
+      <c r="R29" s="7"/>
     </row>
     <row r="30" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="4"/>
@@ -1820,14 +1851,10 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="N30" s="4"/>
-      <c r="O30" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P30" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
     </row>
     <row r="31" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="4"/>
@@ -1841,14 +1868,10 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="N31" s="4"/>
-      <c r="O31" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P31" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="9"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B32" s="4"/>
@@ -1862,30 +1885,18 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-    </row>
-    <row r="34" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="N24:R25"/>
     <mergeCell ref="B16:F17"/>
     <mergeCell ref="H16:L17"/>
     <mergeCell ref="N16:R17"/>
-    <mergeCell ref="N25:R26"/>
     <mergeCell ref="B3:F4"/>
     <mergeCell ref="H3:L4"/>
     <mergeCell ref="N3:R4"/>

--- a/project/02_테이블 설계/DB테이블.xlsx
+++ b/project/02_테이블 설계/DB테이블.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIclass\project\02_테이블 설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2019\SecondSemester\AIclass\project\02_테이블 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA0FA57-D97F-48B1-ABC5-F63540C13006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1E83C2-FF50-4110-A919-776F123EC38B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17250" yWindow="6870" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,222 +28,227 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="58">
   <si>
     <t>데이터형식</t>
   </si>
   <si>
+    <t>VARCHAR(30)</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>키</t>
+  </si>
+  <si>
+    <t>필드명</t>
+  </si>
+  <si>
+    <t>핸드폰</t>
+  </si>
+  <si>
+    <t>이메일</t>
+  </si>
+  <si>
+    <t>비고</t>
+  </si>
+  <si>
+    <t>주소</t>
+  </si>
+  <si>
+    <t>기계ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 생산 기록</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/N</t>
+  </si>
+  <si>
+    <t>N/N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/N 여부</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품이름</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>갯수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산날짜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산가능제품인지?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산팀 직원</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계 생산가능 제품 목록</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업지시</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루예상생산량</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가용여부</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품기록코드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(14)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업지시코드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량률</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOUBLE(6,3)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIT(1)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT b'0'</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자/ 직원</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업지시코드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산계획</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산계획코드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(5)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>VARCHAR(50)</t>
-  </si>
-  <si>
-    <t>VARCHAR(30)</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>키</t>
-  </si>
-  <si>
-    <t>필드명</t>
-  </si>
-  <si>
-    <t>핸드폰</t>
-  </si>
-  <si>
-    <t>이메일</t>
-  </si>
-  <si>
-    <t>비고</t>
-  </si>
-  <si>
-    <t>주소</t>
-  </si>
-  <si>
-    <t>기계ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>기계</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품 생산 기록</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/N</t>
-  </si>
-  <si>
-    <t>N/N</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/N 여부</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품이름</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>생산가능 제품 목록</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(10)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>갯수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>생산날짜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>생산가능제품인지?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>생산팀 직원</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>기계 생산가능 제품 목록</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>작업지시</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>하루예상생산량</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>가용여부</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품기록코드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTO_INCREMENT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VHARCHAR(10)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/N</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(14)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(30)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>작업지시코드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>불량률</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOUBLE(6,3)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIT(1)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT b'0'</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/N</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자/ 직원</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>작업지시코드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>생산계획</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>생산계획코드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5분마다</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 목록</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -519,6 +524,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -536,27 +562,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1035,217 +1040,217 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="L14" sqref="H6:L14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" customWidth="1"/>
-    <col min="8" max="8" width="6.21875" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="6.21875" customWidth="1"/>
-    <col min="15" max="15" width="18.21875" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.69921875" customWidth="1"/>
+    <col min="2" max="2" width="6.19921875" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="8" max="8" width="6.19921875" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" customWidth="1"/>
+    <col min="10" max="10" width="12.19921875" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="14" max="14" width="6.19921875" customWidth="1"/>
+    <col min="15" max="15" width="18.19921875" customWidth="1"/>
+    <col min="16" max="16" width="12.19921875" customWidth="1"/>
+    <col min="17" max="17" width="10.59765625" customWidth="1"/>
     <col min="18" max="18" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="H3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="H3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="N3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="16"/>
-    </row>
-    <row r="5" spans="2:18" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
+      <c r="N3" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="20"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="23"/>
+    </row>
+    <row r="5" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2"/>
       <c r="H6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7"/>
       <c r="N7" s="2"/>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="H8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="7"/>
@@ -1253,23 +1258,23 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="H9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L9" s="9"/>
       <c r="N9" s="2"/>
@@ -1278,26 +1283,26 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="H10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1305,7 +1310,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1313,13 +1318,13 @@
       <c r="F11" s="2"/>
       <c r="H11" s="4"/>
       <c r="I11" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L11" s="9"/>
       <c r="N11" s="2"/>
@@ -1328,7 +1333,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1336,22 +1341,24 @@
       <c r="F12" s="2"/>
       <c r="H12" s="7"/>
       <c r="I12" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1359,10 +1366,10 @@
       <c r="F13" s="7"/>
       <c r="H13" s="4"/>
       <c r="I13" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -1372,25 +1379,25 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1408,234 +1415,236 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="H16" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="19"/>
-      <c r="N16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="13"/>
-    </row>
-    <row r="17" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="16"/>
-    </row>
-    <row r="18" spans="1:18" ht="19.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="H16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="N16" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="20"/>
+    </row>
+    <row r="17" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="17"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="23"/>
+    </row>
+    <row r="18" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="6"/>
       <c r="H19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R19" s="7"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="4"/>
       <c r="H20" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L20" s="7"/>
       <c r="N20" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="4"/>
       <c r="H21" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q21" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="4"/>
       <c r="H22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L22" s="7"/>
       <c r="N22" s="9"/>
@@ -1644,74 +1653,68 @@
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H24" s="4"/>
-      <c r="I24" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="4"/>
-      <c r="N24" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="19"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="N24" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="14"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F25" s="4"/>
       <c r="H25" s="4"/>
@@ -1719,23 +1722,23 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="22"/>
-    </row>
-    <row r="26" spans="1:18" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="N25" s="15"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="17"/>
+    </row>
+    <row r="26" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F26" s="4"/>
       <c r="H26" s="4"/>
@@ -1744,22 +1747,22 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="N26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1772,22 +1775,22 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="N27" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1800,22 +1803,22 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="N28" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1829,17 +1832,17 @@
       <c r="L29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R29" s="7"/>
     </row>
-    <row r="30" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1856,7 +1859,7 @@
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
     </row>
-    <row r="31" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1873,7 +1876,7 @@
       <c r="Q31" s="7"/>
       <c r="R31" s="9"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1890,7 +1893,7 @@
       <c r="Q32" s="9"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="N24:R25"/>
